--- a/NLSY-CogEpi/NLSY_cw/Tables.xlsx
+++ b/NLSY-CogEpi/NLSY_cw/Tables.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="77">
   <si>
     <t>Mean</t>
   </si>
@@ -22,12 +25,6 @@
     <t>SD/%</t>
   </si>
   <si>
-    <t>AFTQ (IQ)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Childhood SES</t>
   </si>
   <si>
@@ -55,12 +52,6 @@
     <t>0.06</t>
   </si>
   <si>
-    <t>3272</t>
-  </si>
-  <si>
-    <t>3327</t>
-  </si>
-  <si>
     <t>-0.03</t>
   </si>
   <si>
@@ -70,12 +61,6 @@
     <t>1.01</t>
   </si>
   <si>
-    <t>1584</t>
-  </si>
-  <si>
-    <t>1517</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Age at diagnosis</t>
   </si>
   <si>
@@ -94,23 +79,207 @@
     <t>Table 1. Descriptive statistics of explanatory, control, and outcome variables, split by sex.</t>
   </si>
   <si>
-    <t>Total cases</t>
-  </si>
-  <si>
     <t>Hypertension diagnoses</t>
+  </si>
+  <si>
+    <t>Total cases (%)</t>
+  </si>
+  <si>
+    <t>5949 (93)</t>
+  </si>
+  <si>
+    <t>2753 (43)</t>
+  </si>
+  <si>
+    <t>3099 (48)</t>
+  </si>
+  <si>
+    <t>3729 (58)</t>
+  </si>
+  <si>
+    <t>3272 (51)</t>
+  </si>
+  <si>
+    <t>1584 (24)</t>
+  </si>
+  <si>
+    <t>5926 (93)</t>
+  </si>
+  <si>
+    <t>2806 (44)</t>
+  </si>
+  <si>
+    <t>3270 (51)</t>
+  </si>
+  <si>
+    <t>3945 (61)</t>
+  </si>
+  <si>
+    <t>3327 (52)</t>
+  </si>
+  <si>
+    <t>1517 (24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 2. Models of </t>
+  </si>
+  <si>
+    <t>AFQT (Cognitive Function)</t>
+  </si>
+  <si>
+    <t>Cognitive Function</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Childhood age</t>
+  </si>
+  <si>
+    <t>Sex * Cog Function</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>ĉ</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>C.I.</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>Model 4</t>
+  </si>
+  <si>
+    <t>[0.99,</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[0.95,</t>
+  </si>
+  <si>
+    <t>0.99]</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[0.94,</t>
+  </si>
+  <si>
+    <t>0.97]</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[0.97,</t>
+  </si>
+  <si>
+    <t>0.98]</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[0.92,</t>
+  </si>
+  <si>
+    <t>0.96]</t>
+  </si>
+  <si>
+    <t>1.01]</t>
+  </si>
+  <si>
+    <t>[0.98,</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>1.00]</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[0.93,</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.94]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.94, </t>
+  </si>
+  <si>
+    <t>Sex * Income</t>
+  </si>
+  <si>
+    <t>Model 5</t>
+  </si>
+  <si>
+    <t>Model 6</t>
+  </si>
+  <si>
+    <t>Model 7</t>
+  </si>
+  <si>
+    <t>[0.96,</t>
+  </si>
+  <si>
+    <t>Individual income</t>
+  </si>
+  <si>
+    <t>Model 8</t>
+  </si>
+  <si>
+    <t>Model 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,12 +331,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,38 +645,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="3.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
@@ -511,7 +684,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -521,7 +694,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>0</v>
@@ -533,10 +706,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5949</v>
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>-0.25</v>
@@ -545,8 +718,8 @@
         <v>1.06</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>5926</v>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="1">
         <v>-0.27</v>
@@ -558,10 +731,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5949</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>-0.35</v>
@@ -570,8 +743,8 @@
         <v>1.06</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>5926</v>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G5" s="1">
         <v>-0.37</v>
@@ -583,10 +756,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2753</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>0.08</v>
@@ -595,8 +768,8 @@
         <v>0.79</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>2806</v>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G6" s="1">
         <v>0.08</v>
@@ -608,10 +781,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3099</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>0.08</v>
@@ -620,8 +793,8 @@
         <v>0.96</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>3270</v>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G7" s="1">
         <v>-0.05</v>
@@ -633,66 +806,66 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3729</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>-0.06</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>3945</v>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>0.99</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -700,22 +873,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -743,11 +916,9 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -774,7 +945,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -785,7 +956,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -796,7 +967,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -807,8 +978,1262 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f>1584 + 1517</f>
+        <v>3101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="11" width="6.140625" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="11" width="6.140625" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="11" width="6.140625" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>